--- a/simulated_data/collection/50nodes_15len_collection.xlsx
+++ b/simulated_data/collection/50nodes_15len_collection.xlsx
@@ -17,13 +17,6 @@
     <sheet name="trial7" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="trial8" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="trial9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="max_error" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="max_percent_error" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="avg_error" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="avg_percent_error" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="true_positive" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="false_positive" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtime" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -924,2218 +917,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>24.12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.140000000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.109999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>24.12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.455</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.130000000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="G3" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.109999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.395</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.050000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.395</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.020000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.050000000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.355</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.355</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.210000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.229999999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.180000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.190000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.229999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.180000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.794642857142858</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.101617795753286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.181818181818182</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.363636363636364</v>
-      </c>
-      <c r="G2" t="n">
-        <v>41.52</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.794642857142858</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.101617795753286</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.181818181818182</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.363636363636364</v>
-      </c>
-      <c r="G3" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.026631158455393</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.097869507323569</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8813559322033901</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.050632911392405</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.790697674418605</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25.58823529411765</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8813559322033901</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.026631158455393</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.097869507323569</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8813559322033901</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.050632911392405</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.790697674418605</v>
-      </c>
-      <c r="G5" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8813559322033901</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.026974951830443</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.097784200385356</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.555</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.325</v>
-      </c>
-      <c r="G6" t="n">
-        <v>38.84375</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.026974951830443</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.097784200385356</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8939393939393938</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.325</v>
-      </c>
-      <c r="G7" t="n">
-        <v>24.09999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.483985765124555</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.013233601841197</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.315789473684211</v>
-      </c>
-      <c r="G8" t="n">
-        <v>73.25</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.483985765124555</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.013233601841197</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9767441860465118</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.315789473684211</v>
-      </c>
-      <c r="G9" t="n">
-        <v>74.1875</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.793532338308458</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.117647058823529</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.76470588235294</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8.76470588235294</v>
-      </c>
-      <c r="G10" t="n">
-        <v>59.70588235294117</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.117647058823529</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.793532338308458</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.117647058823529</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.76470588235294</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8.76470588235294</v>
-      </c>
-      <c r="G11" t="n">
-        <v>62.64705882352941</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.117647058823529</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.028832653061225</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.582514285714286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4713551020408164</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.16004081632653</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4960489795918368</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.111689795918367</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4690040816326531</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.028832653061225</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.582514285714286</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4679591836734694</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.16004081632653</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4960489795918368</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.327787755102041</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4690040816326531</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.173934693877551</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.554910204081632</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5945387755102041</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.169795918367347</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4580489795918368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.371126530612244</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5945387755102041</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.173934693877551</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.554910204081632</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5945387755102041</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.169795918367347</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4580489795918368</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.268685714285714</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5945387755102041</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.940995918367347</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.361738775510204</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.243248979591837</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.342897959183674</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4127510204081632</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.071779591836735</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.536530612244898</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.940995918367347</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.361738775510204</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5544489795918368</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.342897959183674</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4127510204081632</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.089746938775511</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.536530612244898</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.020555102040817</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.420591836734694</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4562693877551021</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.311355102040816</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4052734693877551</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.200832653061225</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.4401224489795918</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.020555102040817</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.420591836734694</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.04654693877551</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.311355102040816</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4053551020408163</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.290677551020408</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4401224489795918</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.220963265306123</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.701563265306122</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4961795918367347</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.034310204081633</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6071755102040816</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.783281632653061</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4868816326530613</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.220963265306123</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.701563265306122</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4935836734693879</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.034310204081633</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6071755102040816</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.640514285714285</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.4868816326530613</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.253850102751393</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1981168992352812</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07878487301773371</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5198540230006534</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.09379976061219707</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.036590211675308</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.07867532113237805</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.253850102751393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1981168992352812</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07851026428152766</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5198540230006534</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.09379976061219707</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.105559727629944</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.07867532113237805</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2640732900673583</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1890347160708728</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08460520372292735</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4980477659754975</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.07911543232967427</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8904573927375732</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.08460520372292735</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2640732900673583</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1890347160708728</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08460520372292735</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4980477659754975</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.07911543232967427</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8696742057072144</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.08460520372292735</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2604633927613082</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1858846454237707</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1754831763977596</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3475676671360801</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08398445431447274</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9254365136346334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.08761494815936563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2604633927613082</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1858846454237707</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.09022673891915743</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3475676671360801</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.08398445431447274</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9695890995164507</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.08761494815936563</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2627872545884019</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1833334108665229</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.07720096988631001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3510029989987334</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.07326161076718248</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.082704887475385</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.07473577448229878</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2627872545884019</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1833334108665229</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1561042317748526</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3510029989987334</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.07328425814912957</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.070862218604147</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.07473577448229878</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.2520756358481828</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.19597780956399</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0755966226677801</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.3838025819844501</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1112167790722956</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.156960980067206</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.07435067625973832</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2520756358481828</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.19597780956399</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.075219117879277</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3838025819844501</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1112167790722956</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.121747552464177</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.07435067625973832</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8412698412698413</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9365079365079365</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9206349206349206</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.873015873015873</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9365079365079365</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8412698412698413</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9365079365079365</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9206349206349206</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.873015873015873</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01587301587301587</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9365079365079365</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9642857142857143</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9642857142857143</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8169014084507042</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8732394366197183</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8450704225352113</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9436619718309859</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8450704225352113</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.04225352112676056</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8450704225352113</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8169014084507042</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8732394366197183</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8591549295774648</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9436619718309859</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8450704225352113</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8450704225352113</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8850574712643678</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9195402298850575</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8850574712643678</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.04597701149425287</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9195402298850575</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8850574712643678</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8850574712643678</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8850574712643678</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9195402298850575</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7903225806451613</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8870967741935484</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.01612903225806452</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.8870967741935484</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.007758620689655172</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3112068965517241</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.04051724137931034</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.007758620689655172</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3112068965517241</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.03793103448275862</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.01283147989734816</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.005132591958939265</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.008554319931565441</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2686056458511548</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00427715996578272</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0367835757057314</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.008554319931565441</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.01283147989734816</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005132591958939265</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.008554319931565441</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2686056458511548</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.00427715996578272</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.03763900769888794</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.008554319931565441</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01821335646140503</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.005203816131830009</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01734605377276669</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.196877710320902</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.006938421509106678</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.04076322636600174</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.01127493495229835</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01821335646140503</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.005203816131830009</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01214223764093669</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.196877710320902</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.006938421509106678</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.04163052905464007</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.01127493495229835</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01757469244288225</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008787346221441126</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01318101933216169</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1836555360281195</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.002636203866432337</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.03602811950790861</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.01230228471001757</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.01757469244288225</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008787346221441126</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.02548330404217926</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1836555360281195</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.002636203866432337</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.04393673110720563</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.01230228471001757</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.01807228915662651</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01204819277108434</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.009466437177280551</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1901893287435456</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.01462994836488812</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.02925989672977625</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.009466437177280551</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.01807228915662651</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01204819277108434</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.009466437177280551</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1901893287435456</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01462994836488812</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.02667814113597246</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.009466437177280551</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0008814334869384766</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0008890628814697266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.1695990562439</v>
-      </c>
-      <c r="E2" t="n">
-        <v>55.16355967521667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1715741157531738</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1015052795410156</v>
-      </c>
-      <c r="H2" t="n">
-        <v>62.66821455955505</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0007092952728271484</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006172657012939453</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.89362812042236</v>
-      </c>
-      <c r="E3" t="n">
-        <v>56.29044723510742</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1665976047515869</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.06181597709655762</v>
-      </c>
-      <c r="H3" t="n">
-        <v>63.92093920707703</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0007483959197998047</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0007572174072265625</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.07237601280212</v>
-      </c>
-      <c r="E4" t="n">
-        <v>59.96862268447876</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1580991744995117</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.07196950912475586</v>
-      </c>
-      <c r="H4" t="n">
-        <v>103.5442593097687</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0007176399230957031</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0008969306945800781</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.24996614456177</v>
-      </c>
-      <c r="E5" t="n">
-        <v>61.83690857887268</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2345142364501953</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.08831262588500977</v>
-      </c>
-      <c r="H5" t="n">
-        <v>102.9426865577698</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.001001596450805664</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0009262561798095703</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46.71549439430237</v>
-      </c>
-      <c r="E6" t="n">
-        <v>62.77030348777771</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2801330089569092</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.08707165718078613</v>
-      </c>
-      <c r="H6" t="n">
-        <v>78.51414132118225</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0008728504180908203</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001008272171020508</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.189289808273315</v>
-      </c>
-      <c r="E7" t="n">
-        <v>60.94577097892761</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3184950351715088</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.08158349990844727</v>
-      </c>
-      <c r="H7" t="n">
-        <v>74.4336986541748</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0007801055908203125</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0008785724639892578</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.671468019485474</v>
-      </c>
-      <c r="E8" t="n">
-        <v>66.02843523025513</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.2009305953979492</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.09319853782653809</v>
-      </c>
-      <c r="H8" t="n">
-        <v>71.87343454360962</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0008914470672607422</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0008814334869384766</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.547747611999512</v>
-      </c>
-      <c r="E9" t="n">
-        <v>60.96335387229919</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2988526821136475</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.08324599266052246</v>
-      </c>
-      <c r="H9" t="n">
-        <v>78.00589895248413</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0007274150848388672</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0008637905120849609</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.13669490814209</v>
-      </c>
-      <c r="E10" t="n">
-        <v>62.71642160415649</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1420431137084961</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.06940460205078125</v>
-      </c>
-      <c r="H10" t="n">
-        <v>77.81363201141357</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0004513263702392578</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004417896270751953</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.409258842468262</v>
-      </c>
-      <c r="E11" t="n">
-        <v>33.92519330978394</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1348505020141602</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.03726744651794434</v>
-      </c>
-      <c r="H11" t="n">
-        <v>36.37680554389954</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
